--- a/Code/Results/Cases/Case_1_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.253837263579868</v>
+        <v>0.09261994809251917</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03301563429076282</v>
+        <v>0.01438135605270219</v>
       </c>
       <c r="E2">
-        <v>1.42663244924006</v>
+        <v>0.4212590745016769</v>
       </c>
       <c r="F2">
-        <v>0.5641273941715284</v>
+        <v>0.5722255841690824</v>
       </c>
       <c r="G2">
-        <v>0.0007757539258746027</v>
+        <v>0.00239282271308533</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1572141030601406</v>
+        <v>0.3798438538984508</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.423610688229587</v>
+        <v>0.7332698380719194</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6124813272460266</v>
+        <v>1.111352089838576</v>
       </c>
       <c r="O2">
-        <v>1.577269831074318</v>
+        <v>1.870665470003445</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2209792784942977</v>
+        <v>0.08232607355142818</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02953702455634755</v>
+        <v>0.01317700204472771</v>
       </c>
       <c r="E3">
-        <v>1.22468735335346</v>
+        <v>0.3674750499019979</v>
       </c>
       <c r="F3">
-        <v>0.5088521077136861</v>
+        <v>0.5633032175208612</v>
       </c>
       <c r="G3">
-        <v>0.0007801977215173171</v>
+        <v>0.002395681757626137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1683885516310699</v>
+        <v>0.3856816045368272</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.111995749167477</v>
+        <v>0.6393757388666472</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6391361970451719</v>
+        <v>1.122742794153986</v>
       </c>
       <c r="O3">
-        <v>1.441869401131754</v>
+        <v>1.85481449600428</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.200787849634267</v>
+        <v>0.07600601176710597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02739225200415163</v>
+        <v>0.01243209405505397</v>
       </c>
       <c r="E4">
-        <v>1.10302323560002</v>
+        <v>0.3345423279487392</v>
       </c>
       <c r="F4">
-        <v>0.476139798565562</v>
+        <v>0.5582619178721586</v>
       </c>
       <c r="G4">
-        <v>0.0007830051745814824</v>
+        <v>0.002397529485395561</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1756458000209515</v>
+        <v>0.3894717625190145</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.921234154391954</v>
+        <v>0.5815714157743059</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.656401639341027</v>
+        <v>1.130171987566406</v>
       </c>
       <c r="O4">
-        <v>1.362714460413855</v>
+        <v>1.846519801055393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1925542723717228</v>
+        <v>0.0734308672458468</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02651590794846115</v>
+        <v>0.01212719614532887</v>
       </c>
       <c r="E5">
-        <v>1.053941166166283</v>
+        <v>0.3211430391357766</v>
       </c>
       <c r="F5">
-        <v>0.4630921615031625</v>
+        <v>0.5563171463126295</v>
       </c>
       <c r="G5">
-        <v>0.000784169724351913</v>
+        <v>0.00239830572416374</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.178700000392459</v>
+        <v>0.3910680011108543</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.843597441087184</v>
+        <v>0.5579778327977465</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6636574462797249</v>
+        <v>1.133308931003171</v>
       </c>
       <c r="O5">
-        <v>1.331378908492951</v>
+        <v>1.843500082263773</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1911867315164955</v>
+        <v>0.07300329318718468</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0263702483003776</v>
+        <v>0.01207648772929204</v>
       </c>
       <c r="E6">
-        <v>1.045818683540759</v>
+        <v>0.3189193174280405</v>
       </c>
       <c r="F6">
-        <v>0.4609419794668312</v>
+        <v>0.5560008290847733</v>
       </c>
       <c r="G6">
-        <v>0.0007843643524747034</v>
+        <v>0.002398436026113676</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1792129160802993</v>
+        <v>0.391336178382987</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.830710766411329</v>
+        <v>0.554057868385911</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6648753822196802</v>
+        <v>1.133836431998432</v>
       </c>
       <c r="O6">
-        <v>1.326229022449866</v>
+        <v>1.843020396929546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2006768322224275</v>
+        <v>0.0759712808224009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0273804428806308</v>
+        <v>0.012427987496757</v>
       </c>
       <c r="E7">
-        <v>1.102359397427975</v>
+        <v>0.3343615375199533</v>
       </c>
       <c r="F7">
-        <v>0.4759627208085462</v>
+        <v>0.5582352466480529</v>
       </c>
       <c r="G7">
-        <v>0.0007830207963319125</v>
+        <v>0.002397539859554762</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1756866016371896</v>
+        <v>0.3894930805723797</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.920186767958</v>
+        <v>0.5812533769063464</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6564986107652295</v>
+        <v>1.130213850125049</v>
       </c>
       <c r="O7">
-        <v>1.362288232652816</v>
+        <v>1.846477618179847</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2425104595068177</v>
+        <v>0.08907066583533663</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03181799237886196</v>
+        <v>0.01396723543883382</v>
       </c>
       <c r="E8">
-        <v>1.356461873623971</v>
+        <v>0.4026943835490897</v>
       </c>
       <c r="F8">
-        <v>0.5447978543175012</v>
+        <v>0.5690582494689735</v>
       </c>
       <c r="G8">
-        <v>0.0007772701598779098</v>
+        <v>0.002393789407672495</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1609831300857474</v>
+        <v>0.3818139941085956</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.316020013583255</v>
+        <v>0.7009272389040007</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6214815022740119</v>
+        <v>1.115189290558533</v>
       </c>
       <c r="O8">
-        <v>1.529707254207693</v>
+        <v>1.864900934478783</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3244802917185581</v>
+        <v>0.1147531366853087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04045492068562595</v>
+        <v>0.01694172030767049</v>
       </c>
       <c r="E9">
-        <v>1.877724534684418</v>
+        <v>0.5375031219361119</v>
       </c>
       <c r="F9">
-        <v>0.6907714760685479</v>
+        <v>0.5937659089395453</v>
       </c>
       <c r="G9">
-        <v>0.0007665882371101889</v>
+        <v>0.002387163428471938</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1354235264359183</v>
+        <v>0.368388604760602</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.098956238269665</v>
+        <v>0.934378178518898</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5602396609454985</v>
+        <v>1.089177883342366</v>
       </c>
       <c r="O9">
-        <v>1.893542911256759</v>
+        <v>1.91249366916972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3847662025794421</v>
+        <v>0.1336089052774838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0467701826277036</v>
+        <v>0.01909927073328532</v>
       </c>
       <c r="E10">
-        <v>2.281724326009808</v>
+        <v>0.6371694737967175</v>
       </c>
       <c r="F10">
-        <v>0.8066224611680326</v>
+        <v>0.6140673000649599</v>
       </c>
       <c r="G10">
-        <v>0.0007590551234467897</v>
+        <v>0.002382734727222127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1188316554906939</v>
+        <v>0.3595213053098387</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.681654788832873</v>
+        <v>1.105141558108187</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.520202745249307</v>
+        <v>1.072168846167614</v>
       </c>
       <c r="O10">
-        <v>2.188507172432992</v>
+        <v>1.954533754587516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4122303747127631</v>
+        <v>0.1421820543462644</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04963907835122683</v>
+        <v>0.02007456286612097</v>
       </c>
       <c r="E11">
-        <v>2.471903458675797</v>
+        <v>0.6826740841936072</v>
       </c>
       <c r="F11">
-        <v>0.8616668108970771</v>
+        <v>0.6237750530323041</v>
       </c>
       <c r="G11">
-        <v>0.0007556845828984973</v>
+        <v>0.002380814386658119</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1118036744158948</v>
+        <v>0.3557038172615288</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.949216205760536</v>
+        <v>1.182663082576482</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5031688128039491</v>
+        <v>1.064886816015175</v>
       </c>
       <c r="O11">
-        <v>2.33019064656753</v>
+        <v>1.975213628725442</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4226381774565766</v>
+        <v>0.1454276391707481</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05072511450874373</v>
+        <v>0.02044297004265161</v>
       </c>
       <c r="E12">
-        <v>2.545015828541437</v>
+        <v>0.6999315022958115</v>
       </c>
       <c r="F12">
-        <v>0.8828915176380576</v>
+        <v>0.6275194718587755</v>
       </c>
       <c r="G12">
-        <v>0.0007544152385359833</v>
+        <v>0.002380100686111709</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1092212066770468</v>
+        <v>0.3542893586653708</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.05097206147525</v>
+        <v>1.211995163569384</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4968975387554408</v>
+        <v>1.06219477921514</v>
       </c>
       <c r="O12">
-        <v>2.385060621736613</v>
+        <v>1.9832696502381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4203962943046236</v>
+        <v>0.1447286874371514</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05049122909826309</v>
+        <v>0.02036366804561851</v>
       </c>
       <c r="E13">
-        <v>2.529217981895059</v>
+        <v>0.6962136292964232</v>
       </c>
       <c r="F13">
-        <v>0.8783027253381022</v>
+        <v>0.6267100008326025</v>
       </c>
       <c r="G13">
-        <v>0.0007546883215675595</v>
+        <v>0.002380253795187989</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1097738101726975</v>
+        <v>0.3545926019933594</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.029036375854673</v>
+        <v>1.205679037300342</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4982400437213741</v>
+        <v>1.062771643660284</v>
       </c>
       <c r="O13">
-        <v>2.373186874088248</v>
+        <v>1.981524613974102</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4130864642817045</v>
+        <v>0.1424490896027493</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04972843291702844</v>
+        <v>0.02010489042175578</v>
       </c>
       <c r="E14">
-        <v>2.477895405479842</v>
+        <v>0.6840933338302051</v>
       </c>
       <c r="F14">
-        <v>0.8634050859896831</v>
+        <v>0.6240817376988161</v>
       </c>
       <c r="G14">
-        <v>0.0007555800194249551</v>
+        <v>0.002380755400081433</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1115896076768577</v>
+        <v>0.3555868245603628</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.957578499579938</v>
+        <v>1.185076728191063</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5026492243112415</v>
+        <v>1.064664027513373</v>
       </c>
       <c r="O14">
-        <v>2.334679584494978</v>
+        <v>1.97587188558748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4086100490812044</v>
+        <v>0.141052648218178</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0492611592616754</v>
+        <v>0.01994626178702674</v>
       </c>
       <c r="E15">
-        <v>2.4466071604067</v>
+        <v>0.6766727224504763</v>
       </c>
       <c r="F15">
-        <v>0.8543307913819547</v>
+        <v>0.6224807562351771</v>
       </c>
       <c r="G15">
-        <v>0.0007561270880375198</v>
+        <v>0.002381064402490999</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1127122359779227</v>
+        <v>0.3561998712621302</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.913867763359974</v>
+        <v>1.172454120313375</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5053735962170194</v>
+        <v>1.065831699093287</v>
       </c>
       <c r="O15">
-        <v>2.31125568151495</v>
+        <v>1.972438766990081</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3829723221849122</v>
+        <v>0.1330485198012212</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04658263181077871</v>
+        <v>0.01903540643929347</v>
       </c>
       <c r="E16">
-        <v>2.269438889080078</v>
+        <v>0.6341991452694344</v>
       </c>
       <c r="F16">
-        <v>0.8030759646935053</v>
+        <v>0.6134424144683948</v>
       </c>
       <c r="G16">
-        <v>0.0007592764387126231</v>
+        <v>0.002382862117705184</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1193017561717733</v>
+        <v>0.3597751427787568</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.664225592489288</v>
+        <v>1.100072073727972</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5213404787831806</v>
+        <v>1.072653910258872</v>
       </c>
       <c r="O16">
-        <v>2.179410319347909</v>
+        <v>1.953213690720929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3672559723188442</v>
+        <v>0.1281369373583487</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04493857446329486</v>
+        <v>0.01847502340999085</v>
       </c>
       <c r="E17">
-        <v>2.162508168034449</v>
+        <v>0.6081868541658082</v>
       </c>
       <c r="F17">
-        <v>0.772262609964244</v>
+        <v>0.6080189650599408</v>
       </c>
       <c r="G17">
-        <v>0.0007612221459912134</v>
+        <v>0.002383989060109129</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1234801848616209</v>
+        <v>0.362023880959657</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.511768615678307</v>
+        <v>1.055626664830129</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5314442003570932</v>
+        <v>1.076955780748861</v>
       </c>
       <c r="O17">
-        <v>2.100543234446633</v>
+        <v>1.941819088464825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3582199622324964</v>
+        <v>0.1253115221152257</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04399256987828437</v>
+        <v>0.0181521249100598</v>
       </c>
       <c r="E18">
-        <v>2.101594795114593</v>
+        <v>0.5932407683809799</v>
       </c>
       <c r="F18">
-        <v>0.754757267927431</v>
+        <v>0.60494399773971</v>
       </c>
       <c r="G18">
-        <v>0.0007623466374540622</v>
+        <v>0.002384646127612179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1259321629617798</v>
+        <v>0.3633376516695801</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.424308484481912</v>
+        <v>1.030047860227398</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5373659579583148</v>
+        <v>1.079472972380515</v>
       </c>
       <c r="O18">
-        <v>2.055878055466167</v>
+        <v>1.935411559184644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3551610877909184</v>
+        <v>0.1243548232724407</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04367219656338506</v>
+        <v>0.01804269800016556</v>
       </c>
       <c r="E19">
-        <v>2.081066993571795</v>
+        <v>0.5881828827227622</v>
       </c>
       <c r="F19">
-        <v>0.7488663889094198</v>
+        <v>0.6039104915535773</v>
       </c>
       <c r="G19">
-        <v>0.0007627283249201495</v>
+        <v>0.002384870126640348</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1267705960766152</v>
+        <v>0.3637859668377486</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.394733091229625</v>
+        <v>1.021384764591915</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5393896392049129</v>
+        <v>1.080332612720838</v>
       </c>
       <c r="O19">
-        <v>2.040870927462862</v>
+        <v>1.933267175091771</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3689286161325782</v>
+        <v>0.1286598271580175</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04511362568987209</v>
+        <v>0.0185347374528817</v>
       </c>
       <c r="E20">
-        <v>2.173828829548142</v>
+        <v>0.6109542890941668</v>
       </c>
       <c r="F20">
-        <v>0.775519912564647</v>
+        <v>0.6085916967970206</v>
       </c>
       <c r="G20">
-        <v>0.0007610144737101865</v>
+        <v>0.002383868176622313</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1230303192029965</v>
+        <v>0.3617823918915706</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.52797367252947</v>
+        <v>1.060359509965508</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5303571527908204</v>
+        <v>1.076493402361592</v>
       </c>
       <c r="O20">
-        <v>2.108865666873157</v>
+        <v>1.94301690777769</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4152333124633429</v>
+        <v>0.143118688578781</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04995249233807897</v>
+        <v>0.02018092470712674</v>
       </c>
       <c r="E21">
-        <v>2.492938833040455</v>
+        <v>0.6876526422603462</v>
       </c>
       <c r="F21">
-        <v>0.8677701835539864</v>
+        <v>0.6248518657428832</v>
       </c>
       <c r="G21">
-        <v>0.000755317925299807</v>
+        <v>0.002380607701177496</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1110540887936837</v>
+        <v>0.3552939518155735</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.978554904269515</v>
+        <v>1.191128772762568</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.50134920026386</v>
+        <v>1.064106410446975</v>
       </c>
       <c r="O21">
-        <v>2.345955887038571</v>
+        <v>1.977526112010167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4455421267740718</v>
+        <v>0.1525631448808298</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05311304059933519</v>
+        <v>0.02125145973987941</v>
       </c>
       <c r="E22">
-        <v>2.707981916962879</v>
+        <v>0.7379308102542836</v>
       </c>
       <c r="F22">
-        <v>0.9303032065041492</v>
+        <v>0.6358771155677516</v>
       </c>
       <c r="G22">
-        <v>0.0007516351421743889</v>
+        <v>0.002378555393094376</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1036888224839823</v>
+        <v>0.3512349145535651</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.275621109345195</v>
+        <v>1.276455951213904</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4834397884313191</v>
+        <v>1.056392646890174</v>
       </c>
       <c r="O22">
-        <v>2.508080122068066</v>
+        <v>2.00139196711865</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4293608317936588</v>
+        <v>0.1475230208738054</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05142629367036733</v>
+        <v>0.02068059215532259</v>
       </c>
       <c r="E23">
-        <v>2.592551263260944</v>
+        <v>0.7110819050139412</v>
       </c>
       <c r="F23">
-        <v>0.8967073484975003</v>
+        <v>0.6299561720463345</v>
       </c>
       <c r="G23">
-        <v>0.0007535974238542248</v>
+        <v>0.00237964357928398</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1075760935936296</v>
+        <v>0.3533846759003225</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.116806444746317</v>
+        <v>1.230928091561509</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.492899039609533</v>
+        <v>1.060474682437906</v>
       </c>
       <c r="O23">
-        <v>2.420845331952393</v>
+        <v>1.988533821081575</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3681724154808705</v>
+        <v>0.1284234338982628</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04503448758224238</v>
+        <v>0.01850774299587954</v>
       </c>
       <c r="E24">
-        <v>2.168709019302057</v>
+        <v>0.6097031047663251</v>
       </c>
       <c r="F24">
-        <v>0.7740466362397882</v>
+        <v>0.6083326307149406</v>
       </c>
       <c r="G24">
-        <v>0.0007611083439309588</v>
+        <v>0.002383922799450877</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1232335488359402</v>
+        <v>0.361891503870817</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.520646782138272</v>
+        <v>1.058219873326493</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.530848255760489</v>
+        <v>1.07670230660203</v>
       </c>
       <c r="O24">
-        <v>2.105100998138084</v>
+        <v>1.942474927125289</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3023021475859196</v>
+        <v>0.107806946252623</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03812447496319749</v>
+        <v>0.01614185482583963</v>
       </c>
       <c r="E25">
-        <v>1.733574716216665</v>
+        <v>0.5009339214195876</v>
       </c>
       <c r="F25">
-        <v>0.6499188927548118</v>
+        <v>0.5867063062207336</v>
       </c>
       <c r="G25">
-        <v>0.0007694189569172305</v>
+        <v>0.00238887842224389</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1419685947850882</v>
+        <v>0.3718456092546853</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.886103630096613</v>
+        <v>0.8713555094118703</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5759696282140645</v>
+        <v>1.095845424461217</v>
       </c>
       <c r="O25">
-        <v>1.790726309943892</v>
+        <v>1.89838249409928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09261994809251917</v>
+        <v>0.2538372635796406</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01438135605270219</v>
+        <v>0.03301563429065624</v>
       </c>
       <c r="E2">
-        <v>0.4212590745016769</v>
+        <v>1.426632449240131</v>
       </c>
       <c r="F2">
-        <v>0.5722255841690824</v>
+        <v>0.5641273941715355</v>
       </c>
       <c r="G2">
-        <v>0.00239282271308533</v>
+        <v>0.0007757539258712573</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3798438538984508</v>
+        <v>0.1572141030601264</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7332698380719194</v>
+        <v>2.423610688229644</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.111352089838576</v>
+        <v>0.6124813272459662</v>
       </c>
       <c r="O2">
-        <v>1.870665470003445</v>
+        <v>1.577269831074204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08232607355142818</v>
+        <v>0.2209792784944256</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01317700204472771</v>
+        <v>0.02953702455634755</v>
       </c>
       <c r="E3">
-        <v>0.3674750499019979</v>
+        <v>1.224687353353431</v>
       </c>
       <c r="F3">
-        <v>0.5633032175208612</v>
+        <v>0.5088521077136861</v>
       </c>
       <c r="G3">
-        <v>0.002395681757626137</v>
+        <v>0.0007801977215470627</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3856816045368272</v>
+        <v>0.1683885516310522</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6393757388666472</v>
+        <v>2.111995749167562</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.122742794153986</v>
+        <v>0.6391361970452181</v>
       </c>
       <c r="O3">
-        <v>1.85481449600428</v>
+        <v>1.441869401131754</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07600601176710597</v>
+        <v>0.2007878496340112</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01243209405505397</v>
+        <v>0.0273922520044465</v>
       </c>
       <c r="E4">
-        <v>0.3345423279487392</v>
+        <v>1.103023235600048</v>
       </c>
       <c r="F4">
-        <v>0.5582619178721586</v>
+        <v>0.476139798565562</v>
       </c>
       <c r="G4">
-        <v>0.002397529485395561</v>
+        <v>0.0007830051746394523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3894717625190145</v>
+        <v>0.175645800020948</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5815714157743059</v>
+        <v>1.92123415439201</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.130171987566406</v>
+        <v>0.6564016393409595</v>
       </c>
       <c r="O4">
-        <v>1.846519801055393</v>
+        <v>1.362714460413827</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0734308672458468</v>
+        <v>0.1925542723717228</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01212719614532887</v>
+        <v>0.02651590794843628</v>
       </c>
       <c r="E5">
-        <v>0.3211430391357766</v>
+        <v>1.053941166166297</v>
       </c>
       <c r="F5">
-        <v>0.5563171463126295</v>
+        <v>0.4630921615031696</v>
       </c>
       <c r="G5">
-        <v>0.00239830572416374</v>
+        <v>0.0007841697244672652</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3910680011108543</v>
+        <v>0.1787000003924586</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5579778327977465</v>
+        <v>1.84359744108724</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.133308931003171</v>
+        <v>0.6636574462797213</v>
       </c>
       <c r="O5">
-        <v>1.843500082263773</v>
+        <v>1.331378908493008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07300329318718468</v>
+        <v>0.1911867315163676</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01207648772929204</v>
+        <v>0.02637024830043089</v>
       </c>
       <c r="E6">
-        <v>0.3189193174280405</v>
+        <v>1.045818683540801</v>
       </c>
       <c r="F6">
-        <v>0.5560008290847733</v>
+        <v>0.460941979466817</v>
       </c>
       <c r="G6">
-        <v>0.002398436026113676</v>
+        <v>0.0007843643524393265</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.391336178382987</v>
+        <v>0.1792129160802962</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.554057868385911</v>
+        <v>1.8307107664113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.133836431998432</v>
+        <v>0.6648753822196731</v>
       </c>
       <c r="O6">
-        <v>1.843020396929546</v>
+        <v>1.326229022449837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0759712808224009</v>
+        <v>0.2006768322223138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.012427987496757</v>
+        <v>0.02738044288052421</v>
       </c>
       <c r="E7">
-        <v>0.3343615375199533</v>
+        <v>1.102359397428017</v>
       </c>
       <c r="F7">
-        <v>0.5582352466480529</v>
+        <v>0.4759627208085391</v>
       </c>
       <c r="G7">
-        <v>0.002397539859554762</v>
+        <v>0.0007830207963103012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3894930805723797</v>
+        <v>0.1756866016371879</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5812533769063464</v>
+        <v>1.920186767957944</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.130213850125049</v>
+        <v>0.6564986107652366</v>
       </c>
       <c r="O7">
-        <v>1.846477618179847</v>
+        <v>1.362288232652759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08907066583533663</v>
+        <v>0.2425104595068177</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01396723543883382</v>
+        <v>0.03181799237902538</v>
       </c>
       <c r="E8">
-        <v>0.4026943835490897</v>
+        <v>1.356461873623971</v>
       </c>
       <c r="F8">
-        <v>0.5690582494689735</v>
+        <v>0.544797854317487</v>
       </c>
       <c r="G8">
-        <v>0.002393789407672495</v>
+        <v>0.000777270159849457</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3818139941085956</v>
+        <v>0.1609831300857589</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7009272389040007</v>
+        <v>2.316020013583284</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.115189290558533</v>
+        <v>0.6214815022740652</v>
       </c>
       <c r="O8">
-        <v>1.864900934478783</v>
+        <v>1.529707254207636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1147531366853087</v>
+        <v>0.3244802917184302</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694172030767049</v>
+        <v>0.04045492068540568</v>
       </c>
       <c r="E9">
-        <v>0.5375031219361119</v>
+        <v>1.877724534684418</v>
       </c>
       <c r="F9">
-        <v>0.5937659089395453</v>
+        <v>0.6907714760685479</v>
       </c>
       <c r="G9">
-        <v>0.002387163428471938</v>
+        <v>0.0007665882371374453</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.368388604760602</v>
+        <v>0.1354235264359307</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.934378178518898</v>
+        <v>3.098956238269523</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.089177883342366</v>
+        <v>0.5602396609455482</v>
       </c>
       <c r="O9">
-        <v>1.91249366916972</v>
+        <v>1.893542911256759</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1336089052774838</v>
+        <v>0.3847662025794278</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01909927073328532</v>
+        <v>0.04677018262763966</v>
       </c>
       <c r="E10">
-        <v>0.6371694737967175</v>
+        <v>2.28172432600978</v>
       </c>
       <c r="F10">
-        <v>0.6140673000649599</v>
+        <v>0.806622461168061</v>
       </c>
       <c r="G10">
-        <v>0.002382734727222127</v>
+        <v>0.0007590551234476993</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3595213053098387</v>
+        <v>0.1188316554906939</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.105141558108187</v>
+        <v>3.681654788832816</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.072168846167614</v>
+        <v>0.5202027452492999</v>
       </c>
       <c r="O10">
-        <v>1.954533754587516</v>
+        <v>2.188507172432907</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1421820543462644</v>
+        <v>0.4122303747127489</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02007456286612097</v>
+        <v>0.04963907835129788</v>
       </c>
       <c r="E11">
-        <v>0.6826740841936072</v>
+        <v>2.471903458675797</v>
       </c>
       <c r="F11">
-        <v>0.6237750530323041</v>
+        <v>0.8616668108970629</v>
       </c>
       <c r="G11">
-        <v>0.002380814386658119</v>
+        <v>0.0007556845828685265</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3557038172615288</v>
+        <v>0.1118036744158921</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.182663082576482</v>
+        <v>3.949216205760365</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.064886816015175</v>
+        <v>0.503168812803942</v>
       </c>
       <c r="O11">
-        <v>1.975213628725442</v>
+        <v>2.330190646567473</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1454276391707481</v>
+        <v>0.4226381774565624</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02044297004265161</v>
+        <v>0.05072511450874373</v>
       </c>
       <c r="E12">
-        <v>0.6999315022958115</v>
+        <v>2.545015828541409</v>
       </c>
       <c r="F12">
-        <v>0.6275194718587755</v>
+        <v>0.8828915176380576</v>
       </c>
       <c r="G12">
-        <v>0.002380100686111709</v>
+        <v>0.0007544152385337769</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3542893586653708</v>
+        <v>0.1092212066770317</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.211995163569384</v>
+        <v>4.050972061475193</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.06219477921514</v>
+        <v>0.4968975387554408</v>
       </c>
       <c r="O12">
-        <v>1.9832696502381</v>
+        <v>2.385060621736642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1447286874371514</v>
+        <v>0.4203962943046378</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02036366804561851</v>
+        <v>0.05049122909832704</v>
       </c>
       <c r="E13">
-        <v>0.6962136292964232</v>
+        <v>2.529217981895044</v>
       </c>
       <c r="F13">
-        <v>0.6267100008326025</v>
+        <v>0.8783027253381164</v>
       </c>
       <c r="G13">
-        <v>0.002380253795187989</v>
+        <v>0.0007546883216006939</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3545926019933594</v>
+        <v>0.1097738101727126</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.205679037300342</v>
+        <v>4.02903637585473</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.062771643660284</v>
+        <v>0.4982400437213244</v>
       </c>
       <c r="O13">
-        <v>1.981524613974102</v>
+        <v>2.373186874088304</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1424490896027493</v>
+        <v>0.4130864642817045</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02010489042175578</v>
+        <v>0.04972843291707818</v>
       </c>
       <c r="E14">
-        <v>0.6840933338302051</v>
+        <v>2.477895405479813</v>
       </c>
       <c r="F14">
-        <v>0.6240817376988161</v>
+        <v>0.8634050859896973</v>
       </c>
       <c r="G14">
-        <v>0.002380755400081433</v>
+        <v>0.0007555800194251116</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3555868245603628</v>
+        <v>0.1115896076768568</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.185076728191063</v>
+        <v>3.957578499580109</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.064664027513373</v>
+        <v>0.5026492243112486</v>
       </c>
       <c r="O14">
-        <v>1.97587188558748</v>
+        <v>2.334679584495007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.141052648218178</v>
+        <v>0.4086100490812186</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01994626178702674</v>
+        <v>0.04926115926173935</v>
       </c>
       <c r="E15">
-        <v>0.6766727224504763</v>
+        <v>2.446607160406728</v>
       </c>
       <c r="F15">
-        <v>0.6224807562351771</v>
+        <v>0.8543307913819405</v>
       </c>
       <c r="G15">
-        <v>0.002381064402490999</v>
+        <v>0.0007561270880082689</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3561998712621302</v>
+        <v>0.11271223597792</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.172454120313375</v>
+        <v>3.913867763359974</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.065831699093287</v>
+        <v>0.5053735962169554</v>
       </c>
       <c r="O15">
-        <v>1.972438766990081</v>
+        <v>2.311255681514922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1330485198012212</v>
+        <v>0.3829723221849406</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01903540643929347</v>
+        <v>0.04658263181061528</v>
       </c>
       <c r="E16">
-        <v>0.6341991452694344</v>
+        <v>2.269438889080121</v>
       </c>
       <c r="F16">
-        <v>0.6134424144683948</v>
+        <v>0.8030759646934911</v>
       </c>
       <c r="G16">
-        <v>0.002382862117705184</v>
+        <v>0.0007592764387412611</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3597751427787568</v>
+        <v>0.1193017561717875</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.100072073727972</v>
+        <v>3.664225592489402</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.072653910258872</v>
+        <v>0.5213404787831806</v>
       </c>
       <c r="O16">
-        <v>1.953213690720929</v>
+        <v>2.179410319347966</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1281369373583487</v>
+        <v>0.3672559723188868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01847502340999085</v>
+        <v>0.04493857446336591</v>
       </c>
       <c r="E17">
-        <v>0.6081868541658082</v>
+        <v>2.162508168034478</v>
       </c>
       <c r="F17">
-        <v>0.6080189650599408</v>
+        <v>0.7722626099642298</v>
       </c>
       <c r="G17">
-        <v>0.002383989060109129</v>
+        <v>0.0007612221459634092</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.362023880959657</v>
+        <v>0.1234801848616209</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.055626664830129</v>
+        <v>3.511768615678534</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.076955780748861</v>
+        <v>0.5314442003571003</v>
       </c>
       <c r="O17">
-        <v>1.941819088464825</v>
+        <v>2.100543234446633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1253115221152257</v>
+        <v>0.3582199622323685</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0181521249100598</v>
+        <v>0.04399256987834832</v>
       </c>
       <c r="E18">
-        <v>0.5932407683809799</v>
+        <v>2.101594795114622</v>
       </c>
       <c r="F18">
-        <v>0.60494399773971</v>
+        <v>0.7547572679274168</v>
       </c>
       <c r="G18">
-        <v>0.002384646127612179</v>
+        <v>0.0007623466374255879</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3633376516695801</v>
+        <v>0.1259321629617638</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.030047860227398</v>
+        <v>3.424308484481799</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.079472972380515</v>
+        <v>0.5373659579583716</v>
       </c>
       <c r="O18">
-        <v>1.935411559184644</v>
+        <v>2.055878055466167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1243548232724407</v>
+        <v>0.3551610877909042</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01804269800016556</v>
+        <v>0.04367219656333532</v>
       </c>
       <c r="E19">
-        <v>0.5881828827227622</v>
+        <v>2.081066993571838</v>
       </c>
       <c r="F19">
-        <v>0.6039104915535773</v>
+        <v>0.7488663889094056</v>
       </c>
       <c r="G19">
-        <v>0.002384870126640348</v>
+        <v>0.000762728324977228</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3637859668377486</v>
+        <v>0.1267705960766286</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.021384764591915</v>
+        <v>3.394733091229625</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.080332612720838</v>
+        <v>0.5393896392049058</v>
       </c>
       <c r="O19">
-        <v>1.933267175091771</v>
+        <v>2.040870927462777</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1286598271580175</v>
+        <v>0.3689286161325782</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0185347374528817</v>
+        <v>0.04511362568958788</v>
       </c>
       <c r="E20">
-        <v>0.6109542890941668</v>
+        <v>2.173828829548114</v>
       </c>
       <c r="F20">
-        <v>0.6085916967970206</v>
+        <v>0.775519912564647</v>
       </c>
       <c r="G20">
-        <v>0.002383868176622313</v>
+        <v>0.0007610144736248214</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3617823918915706</v>
+        <v>0.1230303192029965</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.060359509965508</v>
+        <v>3.527973672529527</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.076493402361592</v>
+        <v>0.5303571527908133</v>
       </c>
       <c r="O20">
-        <v>1.94301690777769</v>
+        <v>2.108865666873214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.143118688578781</v>
+        <v>0.4152333124633287</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02018092470712674</v>
+        <v>0.04995249233807897</v>
       </c>
       <c r="E21">
-        <v>0.6876526422603462</v>
+        <v>2.492938833040455</v>
       </c>
       <c r="F21">
-        <v>0.6248518657428832</v>
+        <v>0.867770183553958</v>
       </c>
       <c r="G21">
-        <v>0.002380607701177496</v>
+        <v>0.0007553179252996904</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3552939518155735</v>
+        <v>0.1110540887936802</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.191128772762568</v>
+        <v>3.978554904269629</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.064106410446975</v>
+        <v>0.5013492002638529</v>
       </c>
       <c r="O21">
-        <v>1.977526112010167</v>
+        <v>2.345955887038571</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1525631448808298</v>
+        <v>0.4455421267740718</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02125145973987941</v>
+        <v>0.05311304059939204</v>
       </c>
       <c r="E22">
-        <v>0.7379308102542836</v>
+        <v>2.707981916962837</v>
       </c>
       <c r="F22">
-        <v>0.6358771155677516</v>
+        <v>0.9303032065041492</v>
       </c>
       <c r="G22">
-        <v>0.002378555393094376</v>
+        <v>0.0007516351421469357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3512349145535651</v>
+        <v>0.1036888224839849</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.276455951213904</v>
+        <v>4.275621109345252</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.056392646890174</v>
+        <v>0.4834397884313333</v>
       </c>
       <c r="O22">
-        <v>2.00139196711865</v>
+        <v>2.508080122068037</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1475230208738054</v>
+        <v>0.4293608317938009</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02068059215532259</v>
+        <v>0.05142629367050233</v>
       </c>
       <c r="E23">
-        <v>0.7110819050139412</v>
+        <v>2.592551263260901</v>
       </c>
       <c r="F23">
-        <v>0.6299561720463345</v>
+        <v>0.8967073484975003</v>
       </c>
       <c r="G23">
-        <v>0.00237964357928398</v>
+        <v>0.0007535974238266579</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3533846759003225</v>
+        <v>0.107576093593627</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.230928091561509</v>
+        <v>4.116806444746032</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.060474682437906</v>
+        <v>0.4928990396095827</v>
       </c>
       <c r="O23">
-        <v>1.988533821081575</v>
+        <v>2.420845331952336</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1284234338982628</v>
+        <v>0.3681724154807711</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01850774299587954</v>
+        <v>0.045034487582015</v>
       </c>
       <c r="E24">
-        <v>0.6097031047663251</v>
+        <v>2.168709019302057</v>
       </c>
       <c r="F24">
-        <v>0.6083326307149406</v>
+        <v>0.7740466362397882</v>
       </c>
       <c r="G24">
-        <v>0.002383922799450877</v>
+        <v>0.0007611083439599657</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.361891503870817</v>
+        <v>0.123233548835926</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.058219873326493</v>
+        <v>3.520646782138158</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.07670230660203</v>
+        <v>0.5308482557604748</v>
       </c>
       <c r="O24">
-        <v>1.942474927125289</v>
+        <v>2.105100998138084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.107806946252623</v>
+        <v>0.3023021475859338</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01614185482583963</v>
+        <v>0.03812447496343196</v>
       </c>
       <c r="E25">
-        <v>0.5009339214195876</v>
+        <v>1.733574716216665</v>
       </c>
       <c r="F25">
-        <v>0.5867063062207336</v>
+        <v>0.6499188927548118</v>
       </c>
       <c r="G25">
-        <v>0.00238887842224389</v>
+        <v>0.0007694189568919125</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3718456092546853</v>
+        <v>0.1419685947850891</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8713555094118703</v>
+        <v>2.88610363009667</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.095845424461217</v>
+        <v>0.5759696282140645</v>
       </c>
       <c r="O25">
-        <v>1.89838249409928</v>
+        <v>1.790726309943949</v>
       </c>
     </row>
   </sheetData>
